--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,22 +708,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41700</v>
+        <v>19600</v>
       </c>
       <c r="E8" s="3">
-        <v>18400</v>
+        <v>44100</v>
       </c>
       <c r="F8" s="3">
-        <v>34100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>36100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -737,8 +740,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +820,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +882,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,22 +914,25 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,8 +946,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,23 +959,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,22 +989,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26700</v>
+        <v>12100</v>
       </c>
       <c r="E18" s="3">
-        <v>12400</v>
+        <v>28300</v>
       </c>
       <c r="F18" s="3">
-        <v>20100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>21300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,22 +1037,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>3100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1034,22 +1067,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>29400</v>
+        <v>13500</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>31200</v>
       </c>
       <c r="F21" s="3">
-        <v>25200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>26700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1063,22 +1099,25 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1092,22 +1131,25 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26100</v>
+        <v>12300</v>
       </c>
       <c r="E23" s="3">
-        <v>12600</v>
+        <v>27600</v>
       </c>
       <c r="F23" s="3">
-        <v>21400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>22700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1121,22 +1163,25 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="F24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,22 +1227,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20700</v>
+        <v>9800</v>
       </c>
       <c r="E26" s="3">
-        <v>10600</v>
+        <v>21900</v>
       </c>
       <c r="F26" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>18000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1208,22 +1259,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20200</v>
+        <v>10500</v>
       </c>
       <c r="E27" s="3">
-        <v>10200</v>
+        <v>21400</v>
       </c>
       <c r="F27" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>17600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,22 +1419,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-3100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1382,22 +1451,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20200</v>
+        <v>10500</v>
       </c>
       <c r="E33" s="3">
-        <v>10200</v>
+        <v>21400</v>
       </c>
       <c r="F33" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>17600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,22 +1515,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20200</v>
+        <v>10500</v>
       </c>
       <c r="E35" s="3">
-        <v>10200</v>
+        <v>21400</v>
       </c>
       <c r="F35" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>17600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1469,28 +1547,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,16 +1614,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1558,8 +1644,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,16 +1676,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7000</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1616,8 +1708,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,16 +1740,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1674,16 +1772,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28300</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1703,16 +1804,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1732,16 +1836,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>19800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1761,16 +1868,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,16 +1964,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,16 +2028,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56500</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>61600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>59900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,16 +2090,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1990,16 +2120,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2152,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12700</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2184,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15700</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>39400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2077,16 +2216,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14400</v>
+        <v>16200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2106,16 +2248,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,16 +2376,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>58000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2486,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,16 +2550,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,16 +2678,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23500</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,28 +2742,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,22 +2779,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20200</v>
+        <v>10500</v>
       </c>
       <c r="E81" s="3">
-        <v>10200</v>
+        <v>21400</v>
       </c>
       <c r="F81" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>17600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,22 +2827,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,22 +3017,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29200</v>
+        <v>5700</v>
       </c>
       <c r="E89" s="3">
-        <v>4200</v>
+        <v>30900</v>
       </c>
       <c r="F89" s="3">
-        <v>19300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>20400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,23 +3065,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,22 +3159,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="E94" s="3">
-        <v>-900</v>
+        <v>12200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-1000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-6500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,22 +3333,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25100</v>
+        <v>-9700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3400</v>
+        <v>-26600</v>
       </c>
       <c r="F100" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-15200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3120,23 +3365,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,23 +3397,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16100</v>
+        <v>-2100</v>
       </c>
       <c r="E102" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="E8" s="3">
-        <v>44100</v>
+        <v>43500</v>
       </c>
       <c r="F8" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="G8" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -966,16 +966,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F17" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G17" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -998,16 +998,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="3">
-        <v>28300</v>
+        <v>27900</v>
       </c>
       <c r="F18" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="G18" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1053,7 +1053,7 @@
         <v>800</v>
       </c>
       <c r="G20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1076,16 +1076,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="E21" s="3">
-        <v>31200</v>
+        <v>30700</v>
       </c>
       <c r="F21" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="G21" s="3">
-        <v>26700</v>
+        <v>26300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1140,16 +1140,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E23" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="F23" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="G23" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1172,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
         <v>2100</v>
@@ -1236,16 +1236,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E26" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="F26" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G26" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1268,16 +1268,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E27" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="F27" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G27" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1437,7 +1437,7 @@
         <v>-800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1460,16 +1460,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E33" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="F33" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G33" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1524,16 +1524,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E35" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="F35" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G35" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1621,10 +1621,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1685,10 +1685,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1749,10 +1749,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="E46" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1813,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="E47" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1845,10 +1845,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="E48" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2037,10 +2037,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61600</v>
+        <v>60700</v>
       </c>
       <c r="E54" s="3">
-        <v>59900</v>
+        <v>58900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2097,7 +2097,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -2132,7 +2132,7 @@
         <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2161,10 +2161,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="E59" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2193,10 +2193,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39400</v>
+        <v>38800</v>
       </c>
       <c r="E60" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2225,10 +2225,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="E61" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
@@ -2385,10 +2385,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58000</v>
+        <v>57100</v>
       </c>
       <c r="E66" s="3">
-        <v>35000</v>
+        <v>34400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>3600</v>
       </c>
       <c r="E76" s="3">
-        <v>24900</v>
+        <v>24500</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2788,16 +2788,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E81" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="F81" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G81" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3029,13 +3029,13 @@
         <v>5700</v>
       </c>
       <c r="E89" s="3">
-        <v>30900</v>
+        <v>30400</v>
       </c>
       <c r="F89" s="3">
         <v>4400</v>
       </c>
       <c r="G89" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3168,16 +3168,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E94" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G94" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3342,16 +3342,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="E100" s="3">
-        <v>-26600</v>
+        <v>-26200</v>
       </c>
       <c r="F100" s="3">
         <v>-3600</v>
       </c>
       <c r="G100" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3409,7 +3409,7 @@
         <v>-2100</v>
       </c>
       <c r="E102" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,46 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,28 +714,31 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19300</v>
+        <v>21400</v>
       </c>
       <c r="E8" s="3">
-        <v>43500</v>
+        <v>18700</v>
       </c>
       <c r="F8" s="3">
-        <v>19200</v>
+        <v>42000</v>
       </c>
       <c r="G8" s="3">
-        <v>35600</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>34400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -743,8 +749,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,19 +951,19 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>2200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -949,8 +974,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,28 +988,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>9900</v>
       </c>
       <c r="E17" s="3">
-        <v>15600</v>
+        <v>7100</v>
       </c>
       <c r="F17" s="3">
-        <v>6300</v>
+        <v>15100</v>
       </c>
       <c r="G17" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -992,28 +1021,31 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E18" s="3">
-        <v>27900</v>
+        <v>11600</v>
       </c>
       <c r="F18" s="3">
-        <v>12900</v>
+        <v>26900</v>
       </c>
       <c r="G18" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,28 +1073,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>2900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1070,28 +1106,31 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>13300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>30700</v>
+        <v>12800</v>
       </c>
       <c r="F21" s="3">
-        <v>14500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>26300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>25400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1111,20 +1153,20 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1134,28 +1176,31 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E23" s="3">
-        <v>27200</v>
+        <v>11700</v>
       </c>
       <c r="F23" s="3">
-        <v>13100</v>
+        <v>26300</v>
       </c>
       <c r="G23" s="3">
-        <v>22300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1166,28 +1211,31 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="F24" s="3">
-        <v>2100</v>
+        <v>5400</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1198,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,28 +1281,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="E26" s="3">
-        <v>21600</v>
+        <v>9300</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>20900</v>
       </c>
       <c r="G26" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>17100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1262,28 +1316,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H27" s="3">
         <v>10300</v>
       </c>
-      <c r="E27" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>16800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,28 +1491,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-2900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1454,28 +1526,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H33" s="3">
         <v>10300</v>
       </c>
-      <c r="E33" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>16800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1486,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,28 +1596,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H35" s="3">
         <v>10300</v>
       </c>
-      <c r="E35" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>16800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1550,34 +1631,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,20 +1703,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1679,19 +1771,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9600</v>
+        <v>10800</v>
       </c>
       <c r="E43" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1711,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,19 +1841,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>258400</v>
       </c>
       <c r="E45" s="3">
-        <v>20100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>19500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1876,22 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28800</v>
+        <v>273500</v>
       </c>
       <c r="E46" s="3">
-        <v>29600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>27900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>28600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1911,22 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10900</v>
+        <v>7100</v>
       </c>
       <c r="E47" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1839,19 +1946,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19500</v>
+        <v>18300</v>
       </c>
       <c r="E48" s="3">
-        <v>18600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>18000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1871,19 +1981,22 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1903,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,20 +2086,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,19 +2156,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60700</v>
+        <v>299900</v>
       </c>
       <c r="E54" s="3">
-        <v>58900</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>58600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>57000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2063,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,19 +2223,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23400</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>22600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2123,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2132,10 +2268,10 @@
         <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2155,19 +2291,22 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11700</v>
+        <v>13100</v>
       </c>
       <c r="E59" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>12100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2187,19 +2326,22 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38800</v>
+        <v>19100</v>
       </c>
       <c r="E60" s="3">
-        <v>16400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>37500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>15800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2219,19 +2361,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16000</v>
+        <v>14700</v>
       </c>
       <c r="E61" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2251,19 +2396,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>2200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2283,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,19 +2536,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57100</v>
+        <v>35500</v>
       </c>
       <c r="E66" s="3">
-        <v>34400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>55200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>33300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2521,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,19 +2726,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="E72" s="3">
-        <v>20800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>20100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,19 +2866,22 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3600</v>
+        <v>264400</v>
       </c>
       <c r="E76" s="3">
-        <v>24500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>23700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2713,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,34 +2936,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,28 +2976,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H81" s="3">
         <v>10300</v>
       </c>
-      <c r="E81" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>16800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2814,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,28 +3028,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>2200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2860,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,28 +3236,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>5700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>30400</v>
+        <v>5500</v>
       </c>
       <c r="F89" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>19400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3052,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,29 +3288,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,28 +3391,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
-        <v>12000</v>
-      </c>
       <c r="F94" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-6200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3194,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,28 +3581,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-9600</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-26200</v>
+        <v>-9200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>-25300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-14500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3368,29 +3616,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3400,29 +3651,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2100</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>16800</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,50 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,31 +718,34 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>21400</v>
+        <v>24400</v>
       </c>
       <c r="E8" s="3">
-        <v>18700</v>
+        <v>23600</v>
       </c>
       <c r="F8" s="3">
-        <v>42000</v>
+        <v>20600</v>
       </c>
       <c r="G8" s="3">
-        <v>15500</v>
+        <v>46400</v>
       </c>
       <c r="H8" s="3">
-        <v>18600</v>
+        <v>17100</v>
       </c>
       <c r="I8" s="3">
-        <v>34400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -752,8 +756,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,31 +962,34 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
-        <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>2400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9900</v>
+        <v>11400</v>
       </c>
       <c r="E17" s="3">
-        <v>7100</v>
+        <v>10900</v>
       </c>
       <c r="F17" s="3">
-        <v>15100</v>
+        <v>7900</v>
       </c>
       <c r="G17" s="3">
-        <v>5300</v>
+        <v>16600</v>
       </c>
       <c r="H17" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="I17" s="3">
-        <v>14100</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1024,31 +1051,34 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="E18" s="3">
-        <v>11600</v>
+        <v>12700</v>
       </c>
       <c r="F18" s="3">
-        <v>26900</v>
+        <v>12800</v>
       </c>
       <c r="G18" s="3">
-        <v>10200</v>
+        <v>29700</v>
       </c>
       <c r="H18" s="3">
-        <v>12500</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>22400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,31 +1107,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>3200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1109,31 +1143,34 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>12800</v>
+      <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>29700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>14000</v>
+        <v>14200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>25400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,19 +1196,19 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1179,31 +1219,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
-        <v>11700</v>
+        <v>13400</v>
       </c>
       <c r="F23" s="3">
-        <v>26300</v>
+        <v>12900</v>
       </c>
       <c r="G23" s="3">
-        <v>10300</v>
+        <v>29000</v>
       </c>
       <c r="H23" s="3">
-        <v>12700</v>
+        <v>11300</v>
       </c>
       <c r="I23" s="3">
-        <v>21600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>23800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1214,31 +1257,34 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5400</v>
-      </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5000</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9500</v>
+        <v>10200</v>
       </c>
       <c r="E26" s="3">
-        <v>9300</v>
+        <v>10500</v>
       </c>
       <c r="F26" s="3">
-        <v>20900</v>
+        <v>10300</v>
       </c>
       <c r="G26" s="3">
-        <v>8300</v>
+        <v>23000</v>
       </c>
       <c r="H26" s="3">
-        <v>10700</v>
+        <v>9100</v>
       </c>
       <c r="I26" s="3">
-        <v>17100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1319,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9500</v>
+        <v>10200</v>
       </c>
       <c r="E27" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F27" s="3">
-        <v>20400</v>
+        <v>11000</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="H27" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="I27" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,31 +1561,34 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-3200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1529,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9500</v>
+        <v>10200</v>
       </c>
       <c r="E33" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F33" s="3">
-        <v>20400</v>
+        <v>11000</v>
       </c>
       <c r="G33" s="3">
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="H33" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="I33" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>18500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9500</v>
+        <v>10200</v>
       </c>
       <c r="E35" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F35" s="3">
-        <v>20400</v>
+        <v>11000</v>
       </c>
       <c r="G35" s="3">
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="H35" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="I35" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>18500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1634,37 +1713,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,22 +1790,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="E41" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="F41" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,22 +1864,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10800</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>9300</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,22 +1940,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258400</v>
+        <v>286100</v>
       </c>
       <c r="E45" s="3">
-        <v>16200</v>
+        <v>285300</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>17900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>21500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1879,22 +1978,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>273500</v>
+        <v>300800</v>
       </c>
       <c r="E46" s="3">
-        <v>27900</v>
+        <v>301900</v>
       </c>
       <c r="F46" s="3">
-        <v>28600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>31500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1914,22 +2016,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7100</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>10600</v>
+        <v>7800</v>
       </c>
       <c r="F47" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1949,22 +2054,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18300</v>
+        <v>19600</v>
       </c>
       <c r="E48" s="3">
-        <v>18800</v>
+        <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>19900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1993,13 +2104,13 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,22 +2206,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>1300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,22 +2282,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>299900</v>
+        <v>330100</v>
       </c>
       <c r="E54" s="3">
-        <v>58600</v>
+        <v>331100</v>
       </c>
       <c r="F54" s="3">
-        <v>57000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>64700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>62900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,22 +2354,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>22600</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>25000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2259,22 +2390,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2294,22 +2428,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13100</v>
+        <v>24300</v>
       </c>
       <c r="E59" s="3">
-        <v>11400</v>
+        <v>14500</v>
       </c>
       <c r="F59" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>13300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2329,22 +2466,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19100</v>
+        <v>30500</v>
       </c>
       <c r="E60" s="3">
-        <v>37500</v>
+        <v>21100</v>
       </c>
       <c r="F60" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>41400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>17500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2364,22 +2504,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14700</v>
+        <v>15800</v>
       </c>
       <c r="E61" s="3">
-        <v>15400</v>
+        <v>16300</v>
       </c>
       <c r="F61" s="3">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2399,22 +2542,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,22 +2694,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35500</v>
+        <v>47800</v>
       </c>
       <c r="E66" s="3">
-        <v>55200</v>
+        <v>39200</v>
       </c>
       <c r="F66" s="3">
-        <v>33300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>61000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>36700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,22 +2900,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17900</v>
+        <v>12300</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="F72" s="3">
-        <v>20100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>22200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,22 +3052,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>264400</v>
+        <v>282300</v>
       </c>
       <c r="E76" s="3">
-        <v>3400</v>
+        <v>291900</v>
       </c>
       <c r="F76" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>26200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3128,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9500</v>
+        <v>10200</v>
       </c>
       <c r="E81" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F81" s="3">
-        <v>20400</v>
+        <v>11000</v>
       </c>
       <c r="G81" s="3">
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="H81" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="I81" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>18500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,31 +3227,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
+      <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>2400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,31 +3453,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
-        <v>5500</v>
+      <c r="D89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>29400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4200</v>
+        <v>6000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>32500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>21400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,32 +3509,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,31 +3621,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1900</v>
+      <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-900</v>
+        <v>2100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-1000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,13 +3677,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-17500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,31 +3827,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-9200</v>
+      <c r="D100" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-3400</v>
+        <v>-10200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-16000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3619,32 +3865,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3654,31 +3903,34 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-2000</v>
+      <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>-1300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,115 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24400</v>
+        <v>18300</v>
       </c>
       <c r="E8" s="3">
-        <v>23600</v>
+        <v>22400</v>
       </c>
       <c r="F8" s="3">
-        <v>20600</v>
+        <v>24100</v>
       </c>
       <c r="G8" s="3">
-        <v>46400</v>
+        <v>23300</v>
       </c>
       <c r="H8" s="3">
-        <v>17100</v>
+        <v>20400</v>
       </c>
       <c r="I8" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>38000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +810,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +854,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +876,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +916,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +960,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +1004,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,31 +1025,37 @@
         <v>700</v>
       </c>
       <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1067,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11400</v>
+        <v>10500</v>
       </c>
       <c r="E17" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="F17" s="3">
-        <v>7900</v>
+        <v>11200</v>
       </c>
       <c r="G17" s="3">
-        <v>16600</v>
+        <v>10800</v>
       </c>
       <c r="H17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13000</v>
+        <v>7800</v>
       </c>
       <c r="E18" s="3">
-        <v>12700</v>
+        <v>10800</v>
       </c>
       <c r="F18" s="3">
         <v>12800</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>12500</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>12600</v>
       </c>
       <c r="I18" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>22400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,89 +1173,103 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>800</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14200</v>
       </c>
       <c r="F21" s="3">
-        <v>14200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14000</v>
       </c>
       <c r="I21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>28000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1199,107 +1278,125 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>11100</v>
       </c>
       <c r="E23" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="F23" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="G23" s="3">
-        <v>29000</v>
+        <v>13300</v>
       </c>
       <c r="H23" s="3">
-        <v>11300</v>
+        <v>12700</v>
       </c>
       <c r="I23" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,84 +1433,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="E26" s="3">
-        <v>10500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>9100</v>
-      </c>
       <c r="I26" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K26" s="3">
         <v>11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="E27" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="F27" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="G27" s="3">
-        <v>22500</v>
+        <v>10400</v>
       </c>
       <c r="H27" s="3">
-        <v>8700</v>
+        <v>10900</v>
       </c>
       <c r="I27" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K27" s="3">
         <v>11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1565,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1609,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1653,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,84 +1697,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="E33" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="F33" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="G33" s="3">
-        <v>22500</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="3">
-        <v>8700</v>
+        <v>10900</v>
       </c>
       <c r="I33" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K33" s="3">
         <v>11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,89 +1829,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="E35" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="F35" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="G35" s="3">
-        <v>22500</v>
+        <v>10400</v>
       </c>
       <c r="H35" s="3">
-        <v>8700</v>
+        <v>10900</v>
       </c>
       <c r="I35" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K35" s="3">
         <v>11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1944,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1962,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +2002,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,29 +2046,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
+        <v>9300</v>
       </c>
       <c r="F43" s="3">
-        <v>10300</v>
+        <v>9500</v>
       </c>
       <c r="G43" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I43" s="3">
         <v>7300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +2090,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,28 +2134,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>286100</v>
+        <v>265100</v>
       </c>
       <c r="E45" s="3">
-        <v>285300</v>
+        <v>284000</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>282800</v>
       </c>
       <c r="G45" s="3">
-        <v>21500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>282000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>21200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1981,28 +2178,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300800</v>
+        <v>275800</v>
       </c>
       <c r="E46" s="3">
-        <v>301900</v>
+        <v>297500</v>
       </c>
       <c r="F46" s="3">
-        <v>30800</v>
+        <v>297400</v>
       </c>
       <c r="G46" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>298400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>30400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>31200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2019,28 +2222,34 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>5700</v>
       </c>
       <c r="E47" s="3">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>8000</v>
       </c>
       <c r="G47" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>9700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2057,28 +2266,34 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19600</v>
+        <v>15400</v>
       </c>
       <c r="E48" s="3">
-        <v>20200</v>
+        <v>16300</v>
       </c>
       <c r="F48" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="G48" s="3">
         <v>19900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>19600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2310,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,17 +2328,17 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2354,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2398,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,29 +2442,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2486,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,28 +2530,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330100</v>
+        <v>298700</v>
       </c>
       <c r="E54" s="3">
-        <v>331100</v>
+        <v>320800</v>
       </c>
       <c r="F54" s="3">
-        <v>64700</v>
+        <v>326300</v>
       </c>
       <c r="G54" s="3">
-        <v>62900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>327300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>62200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2574,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2596,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2614,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,29 +2654,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,28 +2698,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
+        <v>11200</v>
       </c>
       <c r="E59" s="3">
-        <v>14500</v>
+        <v>25300</v>
       </c>
       <c r="F59" s="3">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="G59" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2469,28 +2742,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30500</v>
+        <v>17000</v>
       </c>
       <c r="E60" s="3">
-        <v>21100</v>
+        <v>31900</v>
       </c>
       <c r="F60" s="3">
-        <v>41400</v>
+        <v>30200</v>
       </c>
       <c r="G60" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>20900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>17300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2507,28 +2786,34 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15800</v>
+        <v>11600</v>
       </c>
       <c r="E61" s="3">
-        <v>16300</v>
+        <v>12300</v>
       </c>
       <c r="F61" s="3">
-        <v>17000</v>
+        <v>15600</v>
       </c>
       <c r="G61" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2545,29 +2830,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2874,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2918,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2962,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,28 +3006,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47800</v>
+        <v>29600</v>
       </c>
       <c r="E66" s="3">
-        <v>39200</v>
+        <v>45200</v>
       </c>
       <c r="F66" s="3">
-        <v>61000</v>
+        <v>47300</v>
       </c>
       <c r="G66" s="3">
-        <v>36700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>38700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>60200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>36300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +3050,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3072,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3112,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3156,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3200,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,28 +3244,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="E72" s="3">
-        <v>19800</v>
+        <v>13700</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="G72" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>22000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3288,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3332,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3376,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,28 +3420,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>282300</v>
+        <v>269000</v>
       </c>
       <c r="E76" s="3">
-        <v>291900</v>
+        <v>275600</v>
       </c>
       <c r="F76" s="3">
-        <v>3800</v>
+        <v>279100</v>
       </c>
       <c r="G76" s="3">
-        <v>26200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>288500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>25900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3464,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,89 +3508,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="F81" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="G81" s="3">
-        <v>22500</v>
+        <v>10400</v>
       </c>
       <c r="H81" s="3">
-        <v>8700</v>
+        <v>10900</v>
       </c>
       <c r="I81" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K81" s="3">
         <v>11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,46 +3623,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3707,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3751,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3795,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3839,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,46 +3883,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>23300</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-8100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14500</v>
       </c>
       <c r="F89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
-        <v>32500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,46 +3949,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4033,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,46 +4077,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>500</v>
       </c>
       <c r="F94" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>2000</v>
       </c>
       <c r="I94" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,19 +4143,21 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-17500</v>
+        <v>-11500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-9900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-17300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3716,8 +4183,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4227,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4271,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,118 +4315,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>-16900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16100</v>
       </c>
       <c r="F100" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-21300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-10100</v>
       </c>
       <c r="I100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,61 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,41 +729,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18300</v>
+        <v>19500</v>
       </c>
       <c r="E8" s="3">
-        <v>22400</v>
+        <v>18400</v>
       </c>
       <c r="F8" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="G8" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="H8" s="3">
-        <v>20400</v>
+        <v>23400</v>
       </c>
       <c r="I8" s="3">
-        <v>45800</v>
+        <v>20500</v>
       </c>
       <c r="J8" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K8" s="3">
         <v>16900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,26 +1048,26 @@
         <v>700</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
       </c>
       <c r="I15" s="3">
+        <v>700</v>
+      </c>
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,8 +1095,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1078,32 +1105,32 @@
         <v>10500</v>
       </c>
       <c r="E17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F17" s="3">
         <v>11700</v>
       </c>
-      <c r="F17" s="3">
-        <v>11200</v>
-      </c>
       <c r="G17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
-        <v>16400</v>
-      </c>
       <c r="J17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,41 +1140,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7800</v>
+        <v>9000</v>
       </c>
       <c r="E18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
-        <v>12800</v>
-      </c>
       <c r="G18" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="H18" s="3">
         <v>12600</v>
       </c>
       <c r="I18" s="3">
-        <v>29400</v>
+        <v>12700</v>
       </c>
       <c r="J18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,41 +1208,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,41 +1253,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
-        <v>14200</v>
-      </c>
       <c r="F21" s="3">
-        <v>13500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>14000</v>
+        <v>14300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>32400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>15500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1284,20 +1324,20 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
       </c>
       <c r="L22" s="3">
+        <v>600</v>
+      </c>
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,41 +1347,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="E23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13300</v>
       </c>
-      <c r="H23" s="3">
-        <v>12700</v>
-      </c>
       <c r="I23" s="3">
-        <v>28700</v>
+        <v>12800</v>
       </c>
       <c r="J23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K23" s="3">
         <v>11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1360,32 +1406,32 @@
         <v>2300</v>
       </c>
       <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2200</v>
       </c>
       <c r="K24" s="3">
         <v>2200</v>
       </c>
       <c r="L24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,41 +1488,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E26" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G26" s="3">
         <v>10100</v>
       </c>
-      <c r="G26" s="3">
-        <v>10400</v>
-      </c>
       <c r="H26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
-        <v>22800</v>
-      </c>
       <c r="J26" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K26" s="3">
         <v>9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,41 +1535,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E27" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G27" s="3">
         <v>10100</v>
       </c>
-      <c r="G27" s="3">
-        <v>10400</v>
-      </c>
       <c r="H27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I27" s="3">
         <v>10900</v>
       </c>
-      <c r="I27" s="3">
-        <v>22300</v>
-      </c>
       <c r="J27" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,41 +1770,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,41 +1817,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E33" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G33" s="3">
         <v>10100</v>
       </c>
-      <c r="G33" s="3">
-        <v>10400</v>
-      </c>
       <c r="H33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I33" s="3">
         <v>10900</v>
       </c>
-      <c r="I33" s="3">
-        <v>22300</v>
-      </c>
       <c r="J33" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,41 +1911,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E35" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G35" s="3">
         <v>10100</v>
       </c>
-      <c r="G35" s="3">
-        <v>10400</v>
-      </c>
       <c r="H35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I35" s="3">
         <v>10900</v>
       </c>
-      <c r="I35" s="3">
-        <v>22300</v>
-      </c>
       <c r="J35" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,46 +1958,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11800</v>
       </c>
-      <c r="H43" s="3">
-        <v>10100</v>
-      </c>
       <c r="I43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J43" s="3">
         <v>7300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,31 +2236,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>265100</v>
+        <v>264000</v>
       </c>
       <c r="E45" s="3">
-        <v>284000</v>
+        <v>266300</v>
       </c>
       <c r="F45" s="3">
-        <v>282800</v>
+        <v>285300</v>
       </c>
       <c r="G45" s="3">
-        <v>282000</v>
+        <v>284100</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>283300</v>
       </c>
       <c r="I45" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>21300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2184,31 +2283,34 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275800</v>
+        <v>276100</v>
       </c>
       <c r="E46" s="3">
-        <v>297500</v>
+        <v>277100</v>
       </c>
       <c r="F46" s="3">
-        <v>297400</v>
+        <v>298900</v>
       </c>
       <c r="G46" s="3">
-        <v>298400</v>
+        <v>298800</v>
       </c>
       <c r="H46" s="3">
-        <v>30400</v>
+        <v>299800</v>
       </c>
       <c r="I46" s="3">
-        <v>31200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>30600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>31300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2228,31 +2330,34 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E47" s="3">
         <v>5700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7700</v>
       </c>
-      <c r="H47" s="3">
-        <v>11500</v>
-      </c>
       <c r="I47" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2272,31 +2377,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="E48" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="F48" s="3">
-        <v>19400</v>
+        <v>16400</v>
       </c>
       <c r="G48" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="H48" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="I48" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>20700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2316,13 +2424,16 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -2334,13 +2445,13 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2457,23 +2577,23 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,31 +2659,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>298700</v>
+        <v>297800</v>
       </c>
       <c r="E54" s="3">
-        <v>320800</v>
+        <v>300100</v>
       </c>
       <c r="F54" s="3">
-        <v>326300</v>
+        <v>322300</v>
       </c>
       <c r="G54" s="3">
-        <v>327300</v>
+        <v>327900</v>
       </c>
       <c r="H54" s="3">
-        <v>64000</v>
+        <v>328800</v>
       </c>
       <c r="I54" s="3">
-        <v>62200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>62500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2746,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2625,23 +2756,23 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
-        <v>24700</v>
-      </c>
       <c r="I57" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,32 +2791,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
         <v>4400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4000</v>
       </c>
       <c r="G58" s="3">
         <v>4000</v>
       </c>
       <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
-        <v>25300</v>
-      </c>
       <c r="F59" s="3">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="G59" s="3">
-        <v>14300</v>
+        <v>24100</v>
       </c>
       <c r="H59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="E60" s="3">
-        <v>31900</v>
+        <v>17100</v>
       </c>
       <c r="F60" s="3">
-        <v>30200</v>
+        <v>32100</v>
       </c>
       <c r="G60" s="3">
-        <v>20900</v>
+        <v>30300</v>
       </c>
       <c r="H60" s="3">
-        <v>41000</v>
+        <v>21000</v>
       </c>
       <c r="I60" s="3">
+        <v>41100</v>
+      </c>
+      <c r="J60" s="3">
         <v>17300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,32 +2932,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="E61" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="F61" s="3">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="G61" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H61" s="3">
         <v>16100</v>
       </c>
-      <c r="H61" s="3">
-        <v>16800</v>
-      </c>
       <c r="I61" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J61" s="3">
         <v>15900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,31 +3167,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="E66" s="3">
-        <v>45200</v>
+        <v>29800</v>
       </c>
       <c r="F66" s="3">
-        <v>47300</v>
+        <v>45400</v>
       </c>
       <c r="G66" s="3">
-        <v>38700</v>
+        <v>47500</v>
       </c>
       <c r="H66" s="3">
-        <v>60200</v>
+        <v>38900</v>
       </c>
       <c r="I66" s="3">
-        <v>36300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>60500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>36500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,31 +3421,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E72" s="3">
         <v>11600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12200</v>
       </c>
-      <c r="G72" s="3">
-        <v>19600</v>
-      </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>19700</v>
       </c>
       <c r="I72" s="3">
-        <v>22000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>22100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,31 +3609,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>269000</v>
+        <v>267900</v>
       </c>
       <c r="E76" s="3">
-        <v>275600</v>
+        <v>270300</v>
       </c>
       <c r="F76" s="3">
-        <v>279100</v>
+        <v>276900</v>
       </c>
       <c r="G76" s="3">
-        <v>288500</v>
+        <v>280400</v>
       </c>
       <c r="H76" s="3">
-        <v>3700</v>
+        <v>289900</v>
       </c>
       <c r="I76" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>26000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3703,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,41 +3755,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E81" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G81" s="3">
         <v>10100</v>
       </c>
-      <c r="G81" s="3">
-        <v>10400</v>
-      </c>
       <c r="H81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I81" s="3">
         <v>10900</v>
       </c>
-      <c r="I81" s="3">
-        <v>22300</v>
-      </c>
       <c r="J81" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,27 +3838,27 @@
       <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,41 +4103,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
-        <v>14500</v>
-      </c>
       <c r="F89" s="3">
-        <v>23100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>6000</v>
       </c>
-      <c r="I89" s="3">
-        <v>32100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="J89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,13 +4171,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3965,27 +4186,27 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,41 +4310,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="E94" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,22 +4378,23 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9900</v>
       </c>
-      <c r="F96" s="3">
-        <v>-17300</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-17400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,41 +4564,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16900</v>
+        <v>-12800</v>
       </c>
       <c r="E100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-16100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-10100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,41 +4611,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4409,41 +4658,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
-        <v>17700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="J102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,44 +733,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="E8" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="F8" s="3">
-        <v>22500</v>
+        <v>17600</v>
       </c>
       <c r="G8" s="3">
-        <v>24200</v>
+        <v>21600</v>
       </c>
       <c r="H8" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="I8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>46000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>16900</v>
+      </c>
+      <c r="M8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
-        <v>46000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>16900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>20500</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,26 +1074,26 @@
         <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1122,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10500</v>
+        <v>11200</v>
       </c>
       <c r="E17" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="F17" s="3">
-        <v>11700</v>
+        <v>10100</v>
       </c>
       <c r="G17" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H17" s="3">
         <v>10800</v>
       </c>
       <c r="I17" s="3">
-        <v>7800</v>
+        <v>10400</v>
       </c>
       <c r="J17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,44 +1170,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E18" s="3">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="F18" s="3">
-        <v>10800</v>
+        <v>7500</v>
       </c>
       <c r="G18" s="3">
-        <v>12900</v>
+        <v>10400</v>
       </c>
       <c r="H18" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="I18" s="3">
-        <v>12700</v>
+        <v>12000</v>
       </c>
       <c r="J18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K18" s="3">
         <v>29500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,44 +1242,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,44 +1290,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12600</v>
+        <v>16200</v>
       </c>
       <c r="E21" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F21" s="3">
-        <v>14300</v>
+        <v>11800</v>
       </c>
       <c r="G21" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>14100</v>
+        <v>13700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K21" s="3">
         <v>32500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,19 +1340,22 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1327,20 +1367,20 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,44 +1390,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11400</v>
+        <v>15000</v>
       </c>
       <c r="E23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="L23" s="3">
         <v>11200</v>
       </c>
-      <c r="F23" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>28800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>11200</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,44 +1440,47 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>2200</v>
-      </c>
       <c r="H24" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K24" s="3">
         <v>5900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2200</v>
       </c>
       <c r="L24" s="3">
         <v>2200</v>
       </c>
       <c r="M24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1540,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9100</v>
+        <v>12900</v>
       </c>
       <c r="E26" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="G26" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H26" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="I26" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="J26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K26" s="3">
         <v>22900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1590,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9100</v>
+        <v>12900</v>
       </c>
       <c r="E27" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F27" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="G27" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="3">
         <v>10500</v>
       </c>
-      <c r="I27" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,44 +1840,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2800</v>
+        <v>-3600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1890,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9100</v>
+        <v>12900</v>
       </c>
       <c r="E33" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F33" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="G33" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="3">
         <v>10500</v>
       </c>
-      <c r="I33" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +1990,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9100</v>
+        <v>12900</v>
       </c>
       <c r="E35" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F35" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="G35" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J35" s="3">
         <v>10500</v>
       </c>
-      <c r="I35" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2040,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E41" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="3">
-        <v>4200</v>
+        <v>1700</v>
       </c>
       <c r="G41" s="3">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="H41" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="I41" s="3">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="J41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2235,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="E43" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="F43" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="G43" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="H43" s="3">
-        <v>11800</v>
+        <v>9100</v>
       </c>
       <c r="I43" s="3">
-        <v>10200</v>
+        <v>11300</v>
       </c>
       <c r="J43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,35 +2335,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264000</v>
+        <v>261800</v>
       </c>
       <c r="E45" s="3">
-        <v>266300</v>
+        <v>252400</v>
       </c>
       <c r="F45" s="3">
-        <v>285300</v>
+        <v>254600</v>
       </c>
       <c r="G45" s="3">
-        <v>284100</v>
+        <v>272800</v>
       </c>
       <c r="H45" s="3">
-        <v>283300</v>
+        <v>271600</v>
       </c>
       <c r="I45" s="3">
-        <v>17800</v>
+        <v>270900</v>
       </c>
       <c r="J45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>276100</v>
+        <v>274300</v>
       </c>
       <c r="E46" s="3">
-        <v>277100</v>
+        <v>263900</v>
       </c>
       <c r="F46" s="3">
-        <v>298900</v>
+        <v>264900</v>
       </c>
       <c r="G46" s="3">
-        <v>298800</v>
+        <v>285700</v>
       </c>
       <c r="H46" s="3">
-        <v>299800</v>
+        <v>285600</v>
       </c>
       <c r="I46" s="3">
-        <v>30600</v>
+        <v>286600</v>
       </c>
       <c r="J46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K46" s="3">
         <v>31300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2342,26 +2447,26 @@
         <v>5100</v>
       </c>
       <c r="E47" s="3">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="F47" s="3">
         <v>5500</v>
       </c>
       <c r="G47" s="3">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
         <v>7700</v>
       </c>
       <c r="I47" s="3">
-        <v>11600</v>
+        <v>7400</v>
       </c>
       <c r="J47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K47" s="3">
         <v>9800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,34 +2485,37 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F48" s="3">
         <v>14800</v>
       </c>
-      <c r="E48" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>16400</v>
-      </c>
       <c r="G48" s="3">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="H48" s="3">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="I48" s="3">
-        <v>20700</v>
+        <v>19100</v>
       </c>
       <c r="J48" s="3">
         <v>19700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>19700</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2427,16 +2535,19 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2448,13 +2559,13 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2685,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
-        <v>1200</v>
-      </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>297800</v>
+        <v>329400</v>
       </c>
       <c r="E54" s="3">
-        <v>300100</v>
+        <v>284700</v>
       </c>
       <c r="F54" s="3">
-        <v>322300</v>
+        <v>286900</v>
       </c>
       <c r="G54" s="3">
-        <v>327900</v>
+        <v>308100</v>
       </c>
       <c r="H54" s="3">
-        <v>328800</v>
+        <v>313400</v>
       </c>
       <c r="I54" s="3">
-        <v>64300</v>
+        <v>314300</v>
       </c>
       <c r="J54" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K54" s="3">
         <v>62500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2877,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,23 +2890,23 @@
         <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
       </c>
       <c r="H57" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3">
-        <v>24800</v>
+        <v>2500</v>
       </c>
       <c r="J57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +2925,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4500</v>
+        <v>6100</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G58" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H58" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I58" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12100</v>
+        <v>19200</v>
       </c>
       <c r="E59" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="F59" s="3">
-        <v>25500</v>
+        <v>10700</v>
       </c>
       <c r="G59" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="H59" s="3">
-        <v>14400</v>
+        <v>23100</v>
       </c>
       <c r="I59" s="3">
-        <v>12400</v>
+        <v>13700</v>
       </c>
       <c r="J59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K59" s="3">
         <v>13200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18100</v>
+        <v>26600</v>
       </c>
       <c r="E60" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="F60" s="3">
-        <v>32100</v>
+        <v>16400</v>
       </c>
       <c r="G60" s="3">
-        <v>30300</v>
+        <v>30700</v>
       </c>
       <c r="H60" s="3">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="I60" s="3">
-        <v>41100</v>
+        <v>20000</v>
       </c>
       <c r="J60" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K60" s="3">
         <v>17300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,35 +3075,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10900</v>
+        <v>23100</v>
       </c>
       <c r="E61" s="3">
-        <v>11700</v>
+        <v>10400</v>
       </c>
       <c r="F61" s="3">
-        <v>12400</v>
+        <v>11100</v>
       </c>
       <c r="G61" s="3">
-        <v>15700</v>
+        <v>11800</v>
       </c>
       <c r="H61" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="I61" s="3">
-        <v>16900</v>
+        <v>15400</v>
       </c>
       <c r="J61" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K61" s="3">
         <v>15900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,34 +3125,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>20700</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="I62" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>2400</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29900</v>
+        <v>70700</v>
       </c>
       <c r="E66" s="3">
-        <v>29800</v>
+        <v>28600</v>
       </c>
       <c r="F66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="H66" s="3">
         <v>45400</v>
       </c>
-      <c r="G66" s="3">
-        <v>47500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>38900</v>
-      </c>
       <c r="I66" s="3">
-        <v>60500</v>
+        <v>37200</v>
       </c>
       <c r="J66" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K66" s="3">
         <v>36500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11400</v>
+        <v>14800</v>
       </c>
       <c r="E72" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="F72" s="3">
-        <v>13700</v>
+        <v>11100</v>
       </c>
       <c r="G72" s="3">
-        <v>12200</v>
+        <v>13100</v>
       </c>
       <c r="H72" s="3">
-        <v>19700</v>
+        <v>11700</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>22100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>267900</v>
+        <v>258700</v>
       </c>
       <c r="E76" s="3">
-        <v>270300</v>
+        <v>256100</v>
       </c>
       <c r="F76" s="3">
-        <v>276900</v>
+        <v>258400</v>
       </c>
       <c r="G76" s="3">
-        <v>280400</v>
+        <v>264700</v>
       </c>
       <c r="H76" s="3">
-        <v>289900</v>
+        <v>268000</v>
       </c>
       <c r="I76" s="3">
-        <v>3800</v>
+        <v>277100</v>
       </c>
       <c r="J76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +3895,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +3950,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9100</v>
+        <v>12900</v>
       </c>
       <c r="E81" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F81" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="G81" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J81" s="3">
         <v>10500</v>
       </c>
-      <c r="I81" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3841,27 +4040,27 @@
       <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,44 +4320,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7200</v>
+        <v>14600</v>
       </c>
       <c r="E89" s="3">
-        <v>-8100</v>
+        <v>6900</v>
       </c>
       <c r="F89" s="3">
-        <v>14600</v>
+        <v>-7800</v>
       </c>
       <c r="G89" s="3">
-        <v>23200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
-        <v>6000</v>
+        <v>14000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K89" s="3">
         <v>32200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4181,7 +4402,7 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4189,27 +4410,27 @@
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,44 +4540,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9500</v>
+        <v>-10000</v>
       </c>
       <c r="E94" s="3">
-        <v>13100</v>
+        <v>9100</v>
       </c>
       <c r="F94" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="H94" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,25 +4612,26 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="E96" s="3">
-        <v>-11500</v>
+        <v>-8500</v>
       </c>
       <c r="F96" s="3">
-        <v>-9900</v>
+        <v>-11000</v>
       </c>
       <c r="G96" s="3">
-        <v>-17400</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-16600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,44 +4810,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12800</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>-17000</v>
+        <v>-12300</v>
       </c>
       <c r="F100" s="3">
-        <v>-16100</v>
+        <v>-16300</v>
       </c>
       <c r="G100" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-10100</v>
+        <v>-15400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,44 +4860,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4661,44 +4910,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3800</v>
+        <v>7400</v>
       </c>
       <c r="E102" s="3">
-        <v>-12500</v>
+        <v>3600</v>
       </c>
       <c r="F102" s="3">
-        <v>-600</v>
+        <v>-12000</v>
       </c>
       <c r="G102" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2200</v>
+        <v>-500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,68 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,47 +736,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19200</v>
+        <v>21600</v>
       </c>
       <c r="E8" s="3">
-        <v>18700</v>
+        <v>19900</v>
       </c>
       <c r="F8" s="3">
-        <v>17600</v>
+        <v>19300</v>
       </c>
       <c r="G8" s="3">
-        <v>21600</v>
+        <v>18200</v>
       </c>
       <c r="H8" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="I8" s="3">
-        <v>22400</v>
+        <v>23900</v>
       </c>
       <c r="J8" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K8" s="3">
         <v>19600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,16 +1075,19 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -1074,29 +1096,29 @@
         <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
       <c r="K15" s="3">
+        <v>600</v>
+      </c>
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1128,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1148,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I17" s="3">
         <v>11200</v>
       </c>
-      <c r="E17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10400</v>
-      </c>
       <c r="J17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1199,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="E18" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F18" s="3">
-        <v>7500</v>
+        <v>8900</v>
       </c>
       <c r="G18" s="3">
-        <v>10400</v>
+        <v>7800</v>
       </c>
       <c r="H18" s="3">
-        <v>12300</v>
+        <v>10700</v>
       </c>
       <c r="I18" s="3">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="J18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K18" s="3">
         <v>12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,47 +1275,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>5100</v>
       </c>
       <c r="E20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,47 +1326,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="E21" s="3">
-        <v>12000</v>
+        <v>16800</v>
       </c>
       <c r="F21" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="G21" s="3">
-        <v>13700</v>
+        <v>12200</v>
       </c>
       <c r="H21" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I21" s="3">
         <v>13500</v>
       </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="L21" s="3">
         <v>32500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>15500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,22 +1379,25 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
@@ -1370,20 +1409,20 @@
         <v>600</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,47 +1432,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="E23" s="3">
-        <v>10900</v>
+        <v>15500</v>
       </c>
       <c r="F23" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="G23" s="3">
-        <v>12400</v>
+        <v>11000</v>
       </c>
       <c r="H23" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="I23" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="J23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,47 +1485,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2700</v>
-      </c>
       <c r="J24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2200</v>
       </c>
       <c r="M24" s="3">
         <v>2200</v>
       </c>
       <c r="N24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1538,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1591,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E26" s="3">
-        <v>8700</v>
+        <v>13400</v>
       </c>
       <c r="F26" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G26" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="H26" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="I26" s="3">
         <v>10000</v>
       </c>
       <c r="J26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1644,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E27" s="3">
-        <v>8700</v>
+        <v>13400</v>
       </c>
       <c r="F27" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G27" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="H27" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="I27" s="3">
         <v>10000</v>
       </c>
       <c r="J27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K27" s="3">
         <v>10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,47 +1909,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-5100</v>
       </c>
       <c r="E32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +1962,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E33" s="3">
-        <v>8700</v>
+        <v>13400</v>
       </c>
       <c r="F33" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G33" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="H33" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="I33" s="3">
         <v>10000</v>
       </c>
       <c r="J33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2068,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E35" s="3">
-        <v>8700</v>
+        <v>13400</v>
       </c>
       <c r="F35" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G35" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="H35" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="I35" s="3">
         <v>10000</v>
       </c>
       <c r="J35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2121,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2223,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>5800</v>
       </c>
       <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
-        <v>1700</v>
-      </c>
       <c r="G41" s="3">
-        <v>4100</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="I41" s="3">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="J41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2274,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,38 +2327,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="E43" s="3">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="F43" s="3">
-        <v>8600</v>
+        <v>9900</v>
       </c>
       <c r="G43" s="3">
         <v>8900</v>
       </c>
       <c r="H43" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I43" s="3">
-        <v>11300</v>
+        <v>9400</v>
       </c>
       <c r="J43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K43" s="3">
         <v>9700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2380,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,38 +2433,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261800</v>
+        <v>264600</v>
       </c>
       <c r="E45" s="3">
-        <v>252400</v>
+        <v>271000</v>
       </c>
       <c r="F45" s="3">
-        <v>254600</v>
+        <v>261200</v>
       </c>
       <c r="G45" s="3">
-        <v>272800</v>
+        <v>263500</v>
       </c>
       <c r="H45" s="3">
-        <v>271600</v>
+        <v>282300</v>
       </c>
       <c r="I45" s="3">
-        <v>270900</v>
+        <v>281100</v>
       </c>
       <c r="J45" s="3">
+        <v>280300</v>
+      </c>
+      <c r="K45" s="3">
         <v>17000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2486,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>274300</v>
+        <v>282200</v>
       </c>
       <c r="E46" s="3">
-        <v>263900</v>
+        <v>283900</v>
       </c>
       <c r="F46" s="3">
-        <v>264900</v>
+        <v>273200</v>
       </c>
       <c r="G46" s="3">
-        <v>285700</v>
+        <v>274200</v>
       </c>
       <c r="H46" s="3">
-        <v>285600</v>
+        <v>295700</v>
       </c>
       <c r="I46" s="3">
-        <v>286600</v>
+        <v>295600</v>
       </c>
       <c r="J46" s="3">
+        <v>296600</v>
+      </c>
+      <c r="K46" s="3">
         <v>29200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2447,29 +2551,29 @@
         <v>5100</v>
       </c>
       <c r="E47" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="F47" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>5700</v>
       </c>
       <c r="H47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J47" s="3">
         <v>7700</v>
       </c>
-      <c r="I47" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,37 +2592,40 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="E48" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="F48" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="G48" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="H48" s="3">
-        <v>18600</v>
+        <v>16200</v>
       </c>
       <c r="I48" s="3">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="J48" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="K48" s="3">
         <v>19700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>19700</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2538,19 +2645,22 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34900</v>
+        <v>36600</v>
       </c>
       <c r="E49" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2562,13 +2672,13 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2698,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,38 +2804,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2857,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2910,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>329400</v>
+        <v>342100</v>
       </c>
       <c r="E54" s="3">
-        <v>284700</v>
+        <v>340900</v>
       </c>
       <c r="F54" s="3">
-        <v>286900</v>
+        <v>294600</v>
       </c>
       <c r="G54" s="3">
-        <v>308100</v>
+        <v>296900</v>
       </c>
       <c r="H54" s="3">
-        <v>313400</v>
+        <v>318900</v>
       </c>
       <c r="I54" s="3">
-        <v>314300</v>
+        <v>324400</v>
       </c>
       <c r="J54" s="3">
+        <v>325300</v>
+      </c>
+      <c r="K54" s="3">
         <v>61500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3007,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
-        <v>2100</v>
-      </c>
       <c r="I57" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="J57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K57" s="3">
         <v>23700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,38 +3058,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3800</v>
-      </c>
       <c r="I58" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,38 +3111,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19200</v>
+        <v>21300</v>
       </c>
       <c r="E59" s="3">
-        <v>11600</v>
+        <v>19800</v>
       </c>
       <c r="F59" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="G59" s="3">
-        <v>24300</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3">
-        <v>23100</v>
+        <v>25200</v>
       </c>
       <c r="I59" s="3">
-        <v>13700</v>
+        <v>23900</v>
       </c>
       <c r="J59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3164,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26600</v>
+        <v>30200</v>
       </c>
       <c r="E60" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>31700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>39300</v>
+      </c>
+      <c r="L60" s="3">
         <v>17300</v>
       </c>
-      <c r="F60" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>30700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>17300</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,38 +3217,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23100</v>
+        <v>12000</v>
       </c>
       <c r="E61" s="3">
-        <v>10400</v>
+        <v>23900</v>
       </c>
       <c r="F61" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="G61" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="H61" s="3">
-        <v>15000</v>
+        <v>12200</v>
       </c>
       <c r="I61" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="J61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K61" s="3">
         <v>16200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3128,37 +3270,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20700</v>
+        <v>33600</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>21400</v>
       </c>
       <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
-        <v>900</v>
-      </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
-        <v>1700</v>
-      </c>
       <c r="J62" s="3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>2400</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3482,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70700</v>
+        <v>76400</v>
       </c>
       <c r="E66" s="3">
-        <v>28600</v>
+        <v>73200</v>
       </c>
       <c r="F66" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="G66" s="3">
-        <v>43400</v>
+        <v>29500</v>
       </c>
       <c r="H66" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="I66" s="3">
-        <v>37200</v>
+        <v>47000</v>
       </c>
       <c r="J66" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K66" s="3">
         <v>57900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3768,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14800</v>
+        <v>15700</v>
       </c>
       <c r="E72" s="3">
-        <v>10900</v>
+        <v>15300</v>
       </c>
       <c r="F72" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="G72" s="3">
-        <v>13100</v>
+        <v>11500</v>
       </c>
       <c r="H72" s="3">
-        <v>11700</v>
+        <v>13600</v>
       </c>
       <c r="I72" s="3">
-        <v>18800</v>
+        <v>12100</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>22100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3980,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>258700</v>
+        <v>265800</v>
       </c>
       <c r="E76" s="3">
-        <v>256100</v>
+        <v>267700</v>
       </c>
       <c r="F76" s="3">
-        <v>258400</v>
+        <v>265100</v>
       </c>
       <c r="G76" s="3">
-        <v>264700</v>
+        <v>267500</v>
       </c>
       <c r="H76" s="3">
-        <v>268000</v>
+        <v>274000</v>
       </c>
       <c r="I76" s="3">
-        <v>277100</v>
+        <v>277400</v>
       </c>
       <c r="J76" s="3">
+        <v>286800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4086,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4144,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E81" s="3">
-        <v>8700</v>
+        <v>13400</v>
       </c>
       <c r="F81" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G81" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="H81" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="I81" s="3">
         <v>10000</v>
       </c>
       <c r="J81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,16 +4220,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
@@ -4041,29 +4239,29 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4271,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4536,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14600</v>
+        <v>8700</v>
       </c>
       <c r="E89" s="3">
-        <v>6900</v>
+        <v>15100</v>
       </c>
       <c r="F89" s="3">
-        <v>-7800</v>
+        <v>7100</v>
       </c>
       <c r="G89" s="3">
-        <v>14000</v>
+        <v>-8000</v>
       </c>
       <c r="H89" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,19 +4612,20 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -4413,27 +4633,27 @@
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4663,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,47 +4769,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10000</v>
+        <v>13500</v>
       </c>
       <c r="E94" s="3">
-        <v>9100</v>
+        <v>-10400</v>
       </c>
       <c r="F94" s="3">
-        <v>12500</v>
+        <v>9400</v>
       </c>
       <c r="G94" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4822,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,28 +4845,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9200</v>
+        <v>-11200</v>
       </c>
       <c r="E96" s="3">
-        <v>-8500</v>
+        <v>-9500</v>
       </c>
       <c r="F96" s="3">
-        <v>-11000</v>
+        <v>-8800</v>
       </c>
       <c r="G96" s="3">
-        <v>-9500</v>
+        <v>-11400</v>
       </c>
       <c r="H96" s="3">
-        <v>-16600</v>
+        <v>-9800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-17200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4663,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,47 +5055,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>-14800</v>
       </c>
       <c r="E100" s="3">
-        <v>-12300</v>
+        <v>2600</v>
       </c>
       <c r="F100" s="3">
-        <v>-16300</v>
+        <v>-12700</v>
       </c>
       <c r="G100" s="3">
-        <v>-15400</v>
+        <v>-16800</v>
       </c>
       <c r="H100" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5108,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4872,38 +5120,38 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4913,47 +5161,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E102" s="3">
-        <v>3600</v>
+        <v>7700</v>
       </c>
       <c r="F102" s="3">
-        <v>-12000</v>
+        <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>-500</v>
+        <v>-12400</v>
       </c>
       <c r="H102" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -745,25 +745,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>21600</v>
+        <v>22500</v>
       </c>
       <c r="E8" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="F8" s="3">
-        <v>19300</v>
+        <v>20100</v>
       </c>
       <c r="G8" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="H8" s="3">
-        <v>22300</v>
+        <v>23200</v>
       </c>
       <c r="I8" s="3">
-        <v>23900</v>
+        <v>24900</v>
       </c>
       <c r="J8" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="K8" s="3">
         <v>19600</v>
@@ -1083,8 +1083,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>900</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -1102,7 +1102,7 @@
         <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1155,25 +1155,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10700</v>
       </c>
       <c r="K17" s="3">
         <v>7500</v>
@@ -1208,25 +1208,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="E18" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F18" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="G18" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="H18" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="I18" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="J18" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="K18" s="3">
         <v>12100</v>
@@ -1282,25 +1282,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2700</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1335,22 +1335,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15700</v>
+        <v>16700</v>
       </c>
       <c r="E21" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="F21" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="G21" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="H21" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I21" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1387,11 +1387,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1441,25 +1441,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="E23" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="F23" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G23" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="H23" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="I23" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="J23" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="K23" s="3">
         <v>12200</v>
@@ -1494,25 +1494,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2200</v>
-      </c>
       <c r="J24" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1600,25 +1600,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E26" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F26" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G26" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H26" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I26" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J26" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K26" s="3">
         <v>9800</v>
@@ -1653,25 +1653,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E27" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F27" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G27" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H27" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I27" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J27" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K27" s="3">
         <v>10500</v>
@@ -1918,25 +1918,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5100</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1971,25 +1971,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E33" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F33" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G33" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H33" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I33" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J33" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K33" s="3">
         <v>10500</v>
@@ -2077,25 +2077,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E35" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F35" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G35" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H35" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I35" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J35" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K35" s="3">
         <v>10500</v>
@@ -2230,25 +2230,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E41" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F41" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G41" s="3">
         <v>1800</v>
       </c>
       <c r="H41" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I41" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J41" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K41" s="3">
         <v>2500</v>
@@ -2336,25 +2336,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="E43" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F43" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G43" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="H43" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="I43" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J43" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="K43" s="3">
         <v>9700</v>
@@ -2442,25 +2442,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264600</v>
+        <v>275300</v>
       </c>
       <c r="E45" s="3">
-        <v>271000</v>
+        <v>281800</v>
       </c>
       <c r="F45" s="3">
-        <v>261200</v>
+        <v>271700</v>
       </c>
       <c r="G45" s="3">
-        <v>263500</v>
+        <v>274100</v>
       </c>
       <c r="H45" s="3">
-        <v>282300</v>
+        <v>293600</v>
       </c>
       <c r="I45" s="3">
-        <v>281100</v>
+        <v>292400</v>
       </c>
       <c r="J45" s="3">
-        <v>280300</v>
+        <v>291600</v>
       </c>
       <c r="K45" s="3">
         <v>17000</v>
@@ -2495,25 +2495,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>282200</v>
+        <v>293600</v>
       </c>
       <c r="E46" s="3">
-        <v>283900</v>
+        <v>295300</v>
       </c>
       <c r="F46" s="3">
-        <v>273200</v>
+        <v>284100</v>
       </c>
       <c r="G46" s="3">
-        <v>274200</v>
+        <v>285200</v>
       </c>
       <c r="H46" s="3">
-        <v>295700</v>
+        <v>307600</v>
       </c>
       <c r="I46" s="3">
-        <v>295600</v>
+        <v>307500</v>
       </c>
       <c r="J46" s="3">
-        <v>296600</v>
+        <v>308500</v>
       </c>
       <c r="K46" s="3">
         <v>29200</v>
@@ -2548,25 +2548,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E47" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I47" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="J47" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="K47" s="3">
         <v>11100</v>
@@ -2601,25 +2601,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="F48" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="G48" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="H48" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="I48" s="3">
-        <v>19300</v>
+        <v>20100</v>
       </c>
       <c r="J48" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="K48" s="3">
         <v>19700</v>
@@ -2654,10 +2654,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36600</v>
+        <v>38100</v>
       </c>
       <c r="E49" s="3">
-        <v>36100</v>
+        <v>37600</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2813,25 +2813,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
-        <v>1500</v>
-      </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
@@ -2919,25 +2919,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>342100</v>
+        <v>355900</v>
       </c>
       <c r="E54" s="3">
-        <v>340900</v>
+        <v>354600</v>
       </c>
       <c r="F54" s="3">
-        <v>294600</v>
+        <v>306500</v>
       </c>
       <c r="G54" s="3">
-        <v>296900</v>
+        <v>308900</v>
       </c>
       <c r="H54" s="3">
-        <v>318900</v>
+        <v>331700</v>
       </c>
       <c r="I54" s="3">
-        <v>324400</v>
+        <v>337400</v>
       </c>
       <c r="J54" s="3">
-        <v>325300</v>
+        <v>338400</v>
       </c>
       <c r="K54" s="3">
         <v>61500</v>
@@ -3020,19 +3020,19 @@
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K57" s="3">
         <v>23700</v>
@@ -3067,25 +3067,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="F58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4300</v>
-      </c>
       <c r="I58" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J58" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K58" s="3">
         <v>3700</v>
@@ -3120,25 +3120,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21300</v>
+        <v>22200</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="F59" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G59" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="H59" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="I59" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="J59" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="K59" s="3">
         <v>11900</v>
@@ -3173,25 +3173,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30200</v>
+        <v>31400</v>
       </c>
       <c r="E60" s="3">
-        <v>27600</v>
+        <v>28700</v>
       </c>
       <c r="F60" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="G60" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="H60" s="3">
-        <v>31700</v>
+        <v>33000</v>
       </c>
       <c r="I60" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="J60" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="K60" s="3">
         <v>39300</v>
@@ -3226,25 +3226,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G61" s="3">
         <v>12000</v>
       </c>
-      <c r="E61" s="3">
-        <v>23900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>11500</v>
-      </c>
       <c r="H61" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="I61" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="J61" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -3279,10 +3279,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33600</v>
+        <v>20800</v>
       </c>
       <c r="E62" s="3">
-        <v>21400</v>
+        <v>22300</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
@@ -3294,10 +3294,10 @@
         <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>2400</v>
@@ -3491,25 +3491,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76400</v>
+        <v>79400</v>
       </c>
       <c r="E66" s="3">
-        <v>73200</v>
+        <v>76100</v>
       </c>
       <c r="F66" s="3">
-        <v>29600</v>
+        <v>30800</v>
       </c>
       <c r="G66" s="3">
-        <v>29500</v>
+        <v>30700</v>
       </c>
       <c r="H66" s="3">
-        <v>45000</v>
+        <v>46800</v>
       </c>
       <c r="I66" s="3">
-        <v>47000</v>
+        <v>48900</v>
       </c>
       <c r="J66" s="3">
-        <v>38500</v>
+        <v>40000</v>
       </c>
       <c r="K66" s="3">
         <v>57900</v>
@@ -3777,25 +3777,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="E72" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="F72" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G72" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="H72" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="I72" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="J72" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -3989,25 +3989,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>265800</v>
+        <v>276400</v>
       </c>
       <c r="E76" s="3">
-        <v>267700</v>
+        <v>278400</v>
       </c>
       <c r="F76" s="3">
-        <v>265100</v>
+        <v>275700</v>
       </c>
       <c r="G76" s="3">
-        <v>267500</v>
+        <v>278200</v>
       </c>
       <c r="H76" s="3">
-        <v>274000</v>
+        <v>284900</v>
       </c>
       <c r="I76" s="3">
-        <v>277400</v>
+        <v>288500</v>
       </c>
       <c r="J76" s="3">
-        <v>286800</v>
+        <v>298300</v>
       </c>
       <c r="K76" s="3">
         <v>3600</v>
@@ -4153,25 +4153,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E81" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F81" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G81" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H81" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I81" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J81" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="K81" s="3">
         <v>10500</v>
@@ -4545,22 +4545,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E89" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="F89" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="G89" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="H89" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="I89" s="3">
-        <v>22900</v>
+        <v>23900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -4619,25 +4619,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4778,22 +4778,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>12900</v>
-      </c>
       <c r="H94" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I94" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4852,22 +4852,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="E96" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="F96" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="G96" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="H96" s="3">
-        <v>-9800</v>
+        <v>-10200</v>
       </c>
       <c r="I96" s="3">
-        <v>-17200</v>
+        <v>-17900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5064,22 +5064,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14800</v>
+        <v>-15400</v>
       </c>
       <c r="E100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F100" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="G100" s="3">
-        <v>-16800</v>
+        <v>-17500</v>
       </c>
       <c r="H100" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="I100" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -5132,7 +5132,7 @@
         <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -5170,22 +5170,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E102" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F102" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="G102" s="3">
-        <v>-12400</v>
+        <v>-12900</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>VINP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,149 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F8" s="3">
         <v>22500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>20100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="H8" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K8" s="3">
         <v>24900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>24100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>38000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,8 +859,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,8 +945,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1059,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1118,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,13 +1133,13 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
@@ -1105,34 +1151,40 @@
         <v>700</v>
       </c>
       <c r="K15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L15" s="3">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M15" s="3">
         <v>600</v>
       </c>
       <c r="N15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="3">
+        <v>600</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1201,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12400</v>
+        <v>13100</v>
       </c>
       <c r="E17" s="3">
-        <v>12000</v>
+        <v>10900</v>
       </c>
       <c r="F17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="E18" s="3">
-        <v>8600</v>
+        <v>9700</v>
       </c>
       <c r="F18" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="G18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I18" s="3">
         <v>8100</v>
       </c>
-      <c r="H18" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K18" s="3">
         <v>13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>29500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,134 +1342,148 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16700</v>
+        <v>22300</v>
       </c>
       <c r="E21" s="3">
-        <v>17400</v>
+        <v>10700</v>
       </c>
       <c r="F21" s="3">
-        <v>12900</v>
+        <v>16800</v>
       </c>
       <c r="G21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I21" s="3">
         <v>12700</v>
       </c>
-      <c r="H21" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>32500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>28000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
@@ -1412,137 +1492,155 @@
         <v>600</v>
       </c>
       <c r="L22" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F23" s="3">
         <v>15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>11700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>28800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>23800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1692,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="E26" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>9300</v>
-      </c>
       <c r="G26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I26" s="3">
         <v>9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>22900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>18900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>9300</v>
-      </c>
       <c r="G27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I27" s="3">
         <v>9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>22400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>18500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +2046,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F33" s="3">
         <v>11800</v>
       </c>
-      <c r="E33" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>9300</v>
-      </c>
       <c r="G33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I33" s="3">
         <v>9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>22400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>18500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2223,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F35" s="3">
         <v>11800</v>
       </c>
-      <c r="E35" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>9300</v>
-      </c>
       <c r="G35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I35" s="3">
         <v>9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>22400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>18500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,44 +2396,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2451,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,44 +2510,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L43" s="3">
         <v>12200</v>
       </c>
-      <c r="E43" s="3">
-        <v>10600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>12200</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2569,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,44 +2628,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275300</v>
+        <v>266400</v>
       </c>
       <c r="E45" s="3">
-        <v>281800</v>
+        <v>257500</v>
       </c>
       <c r="F45" s="3">
-        <v>271700</v>
+        <v>275900</v>
       </c>
       <c r="G45" s="3">
-        <v>274100</v>
+        <v>282500</v>
       </c>
       <c r="H45" s="3">
-        <v>293600</v>
+        <v>272300</v>
       </c>
       <c r="I45" s="3">
+        <v>274700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K45" s="3">
         <v>292400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>291600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>21300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,44 +2687,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>293600</v>
+        <v>287300</v>
       </c>
       <c r="E46" s="3">
-        <v>295300</v>
+        <v>275000</v>
       </c>
       <c r="F46" s="3">
-        <v>284100</v>
+        <v>294200</v>
       </c>
       <c r="G46" s="3">
-        <v>285200</v>
+        <v>295900</v>
       </c>
       <c r="H46" s="3">
-        <v>307600</v>
+        <v>284800</v>
       </c>
       <c r="I46" s="3">
+        <v>285800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K46" s="3">
         <v>307500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>308500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>31300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,44 +2746,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K47" s="3">
         <v>8200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,44 +2805,50 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F48" s="3">
         <v>16800</v>
       </c>
-      <c r="E48" s="3">
-        <v>14500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>15200</v>
-      </c>
       <c r="G48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I48" s="3">
         <v>15900</v>
       </c>
-      <c r="H48" s="3">
-        <v>16800</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,25 +2864,31 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38100</v>
+        <v>39100</v>
       </c>
       <c r="E49" s="3">
-        <v>37600</v>
+        <v>38700</v>
       </c>
       <c r="F49" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H49" s="3">
         <v>300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2675,17 +2897,17 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +2923,14 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,44 +3041,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,44 +3159,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>355900</v>
+        <v>349000</v>
       </c>
       <c r="E54" s="3">
-        <v>354600</v>
+        <v>337500</v>
       </c>
       <c r="F54" s="3">
-        <v>306500</v>
+        <v>356600</v>
       </c>
       <c r="G54" s="3">
-        <v>308900</v>
+        <v>355400</v>
       </c>
       <c r="H54" s="3">
-        <v>331700</v>
+        <v>307100</v>
       </c>
       <c r="I54" s="3">
+        <v>309500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K54" s="3">
         <v>337400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>338400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>62500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,44 +3268,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>23700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,44 +3323,50 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3114,44 +3382,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="E59" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11600</v>
       </c>
-      <c r="H59" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,44 +3441,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31400</v>
+        <v>25500</v>
       </c>
       <c r="E60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G60" s="3">
         <v>28700</v>
       </c>
-      <c r="F60" s="3">
-        <v>18600</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I60" s="3">
         <v>17600</v>
       </c>
-      <c r="H60" s="3">
-        <v>33000</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K60" s="3">
         <v>31200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,44 +3500,50 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26600</v>
+        <v>23200</v>
       </c>
       <c r="E61" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="F61" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H61" s="3">
         <v>11200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>12000</v>
       </c>
-      <c r="H61" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>16200</v>
-      </c>
       <c r="J61" s="3">
-        <v>16600</v>
+        <v>12800</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
       </c>
       <c r="L61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="M61" s="3">
+        <v>16200</v>
+      </c>
+      <c r="N61" s="3">
         <v>15900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3273,44 +3559,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20800</v>
+        <v>24500</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F62" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3618,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,44 +3795,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79400</v>
+        <v>73700</v>
       </c>
       <c r="E66" s="3">
-        <v>76100</v>
+        <v>67200</v>
       </c>
       <c r="F66" s="3">
+        <v>79600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>76300</v>
+      </c>
+      <c r="H66" s="3">
         <v>30800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30700</v>
       </c>
-      <c r="H66" s="3">
-        <v>46800</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K66" s="3">
         <v>48900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>40000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>57900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>36500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,44 +4113,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F72" s="3">
         <v>16400</v>
       </c>
-      <c r="E72" s="3">
-        <v>15900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>11700</v>
-      </c>
       <c r="G72" s="3">
-        <v>11900</v>
+        <v>16000</v>
       </c>
       <c r="H72" s="3">
-        <v>14100</v>
+        <v>11800</v>
       </c>
       <c r="I72" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K72" s="3">
         <v>12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>20200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>22100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,44 +4349,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>276400</v>
+        <v>275200</v>
       </c>
       <c r="E76" s="3">
-        <v>278400</v>
+        <v>270300</v>
       </c>
       <c r="F76" s="3">
-        <v>275700</v>
+        <v>277000</v>
       </c>
       <c r="G76" s="3">
-        <v>278200</v>
+        <v>279100</v>
       </c>
       <c r="H76" s="3">
-        <v>284900</v>
+        <v>276300</v>
       </c>
       <c r="I76" s="3">
+        <v>278800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K76" s="3">
         <v>288500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>298300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4467,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F81" s="3">
         <v>11800</v>
       </c>
-      <c r="E81" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>9300</v>
-      </c>
       <c r="G81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I81" s="3">
         <v>9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>22400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>18500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4617,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4230,13 +4628,13 @@
         <v>900</v>
       </c>
       <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -4244,38 +4642,44 @@
       <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4967,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>9000</v>
       </c>
-      <c r="E89" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>15000</v>
-      </c>
       <c r="I89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K89" s="3">
         <v>23900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,61 +5053,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +5226,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14000</v>
+        <v>8300</v>
       </c>
       <c r="E94" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-10800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>12700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,35 +5312,37 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-9900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-9100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-10200</v>
-      </c>
       <c r="I96" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4899,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,163 +5544,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-16600</v>
-      </c>
       <c r="I100" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-9700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F102" s="3">
         <v>7900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VINP_QTR_FIN.xlsx
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>22900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J8" s="3">
         <v>23700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>19000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>23300</v>
       </c>
       <c r="K8" s="3">
         <v>24900</v>
@@ -1142,13 +1142,13 @@
         <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>700</v>
@@ -1209,25 +1209,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="E17" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="F17" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="G17" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="H17" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="I17" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="J17" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K17" s="3">
         <v>11600</v>
@@ -1268,25 +1268,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="E18" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="F18" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="G18" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="H18" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="I18" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="J18" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K18" s="3">
         <v>13300</v>
@@ -1350,22 +1350,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="H20" s="3">
         <v>3000</v>
       </c>
       <c r="I20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
         <v>2900</v>
@@ -1409,25 +1409,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="E21" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F21" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="G21" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="H21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="I21" s="3">
-        <v>12700</v>
-      </c>
       <c r="J21" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="K21" s="3">
         <v>14000</v>
@@ -1474,7 +1474,7 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1527,25 +1527,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="E23" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F23" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="G23" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="H23" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I23" s="3">
         <v>11700</v>
       </c>
-      <c r="I23" s="3">
-        <v>11500</v>
-      </c>
       <c r="J23" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="K23" s="3">
         <v>12700</v>
@@ -1592,10 +1592,10 @@
         <v>2600</v>
       </c>
       <c r="F24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
         <v>2400</v>
@@ -1704,25 +1704,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="E26" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F26" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G26" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H26" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I26" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J26" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K26" s="3">
         <v>10400</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E27" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F27" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H27" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I27" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J27" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K27" s="3">
         <v>10400</v>
@@ -2058,22 +2058,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="H32" s="3">
         <v>-3000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
         <v>-2900</v>
@@ -2117,25 +2117,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E33" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F33" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G33" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H33" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I33" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J33" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K33" s="3">
         <v>10400</v>
@@ -2235,25 +2235,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E35" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F35" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G35" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H35" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I35" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J35" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K35" s="3">
         <v>10400</v>
@@ -2404,25 +2404,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E41" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F41" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G41" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H41" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J41" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K41" s="3">
         <v>5300</v>
@@ -2522,25 +2522,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="E43" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="F43" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G43" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H43" s="3">
         <v>10600</v>
       </c>
-      <c r="H43" s="3">
-        <v>10400</v>
-      </c>
       <c r="I43" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J43" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="K43" s="3">
         <v>9800</v>
@@ -2640,25 +2640,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>266400</v>
+        <v>271400</v>
       </c>
       <c r="E45" s="3">
-        <v>257500</v>
+        <v>262300</v>
       </c>
       <c r="F45" s="3">
-        <v>275900</v>
+        <v>281000</v>
       </c>
       <c r="G45" s="3">
-        <v>282500</v>
+        <v>287800</v>
       </c>
       <c r="H45" s="3">
-        <v>272300</v>
+        <v>277400</v>
       </c>
       <c r="I45" s="3">
-        <v>274700</v>
+        <v>279800</v>
       </c>
       <c r="J45" s="3">
-        <v>294300</v>
+        <v>299800</v>
       </c>
       <c r="K45" s="3">
         <v>292400</v>
@@ -2699,25 +2699,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>287300</v>
+        <v>292700</v>
       </c>
       <c r="E46" s="3">
-        <v>275000</v>
+        <v>280200</v>
       </c>
       <c r="F46" s="3">
-        <v>294200</v>
+        <v>299700</v>
       </c>
       <c r="G46" s="3">
-        <v>295900</v>
+        <v>301500</v>
       </c>
       <c r="H46" s="3">
-        <v>284800</v>
+        <v>290100</v>
       </c>
       <c r="I46" s="3">
-        <v>285800</v>
+        <v>291200</v>
       </c>
       <c r="J46" s="3">
-        <v>308300</v>
+        <v>314000</v>
       </c>
       <c r="K46" s="3">
         <v>307500</v>
@@ -2758,25 +2758,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F47" s="3">
         <v>5400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H47" s="3">
         <v>5300</v>
       </c>
-      <c r="G47" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5200</v>
-      </c>
       <c r="I47" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J47" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K47" s="3">
         <v>8200</v>
@@ -2817,25 +2817,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="E48" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="F48" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="G48" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="H48" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="I48" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="J48" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="K48" s="3">
         <v>20100</v>
@@ -2876,16 +2876,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39100</v>
+        <v>39900</v>
       </c>
       <c r="E49" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="F49" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="G49" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -3171,25 +3171,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>349000</v>
+        <v>355500</v>
       </c>
       <c r="E54" s="3">
-        <v>337500</v>
+        <v>343800</v>
       </c>
       <c r="F54" s="3">
-        <v>356600</v>
+        <v>363300</v>
       </c>
       <c r="G54" s="3">
-        <v>355400</v>
+        <v>362000</v>
       </c>
       <c r="H54" s="3">
-        <v>307100</v>
+        <v>312900</v>
       </c>
       <c r="I54" s="3">
-        <v>309500</v>
+        <v>315300</v>
       </c>
       <c r="J54" s="3">
-        <v>332400</v>
+        <v>338700</v>
       </c>
       <c r="K54" s="3">
         <v>337400</v>
@@ -3282,7 +3282,7 @@
         <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
@@ -3294,7 +3294,7 @@
         <v>1500</v>
       </c>
       <c r="J57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -3335,25 +3335,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4500</v>
       </c>
       <c r="K58" s="3">
         <v>4100</v>
@@ -3394,25 +3394,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I59" s="3">
         <v>11800</v>
       </c>
-      <c r="F59" s="3">
-        <v>22200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>11600</v>
-      </c>
       <c r="J59" s="3">
-        <v>26300</v>
+        <v>26700</v>
       </c>
       <c r="K59" s="3">
         <v>24800</v>
@@ -3453,25 +3453,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="E60" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="F60" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="G60" s="3">
-        <v>28700</v>
+        <v>29300</v>
       </c>
       <c r="H60" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="I60" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="J60" s="3">
-        <v>33100</v>
+        <v>33700</v>
       </c>
       <c r="K60" s="3">
         <v>31200</v>
@@ -3512,25 +3512,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="E61" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="F61" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="G61" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="H61" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="J61" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -3571,16 +3571,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="F62" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="G62" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
@@ -3807,25 +3807,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73700</v>
+        <v>75100</v>
       </c>
       <c r="E66" s="3">
-        <v>67200</v>
+        <v>68400</v>
       </c>
       <c r="F66" s="3">
-        <v>79600</v>
+        <v>81100</v>
       </c>
       <c r="G66" s="3">
-        <v>76300</v>
+        <v>77700</v>
       </c>
       <c r="H66" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="I66" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="J66" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="K66" s="3">
         <v>48900</v>
@@ -4125,25 +4125,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="E72" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="F72" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="G72" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="H72" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="I72" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="J72" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="K72" s="3">
         <v>12600</v>
@@ -4361,25 +4361,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>275200</v>
+        <v>280400</v>
       </c>
       <c r="E76" s="3">
-        <v>270300</v>
+        <v>275400</v>
       </c>
       <c r="F76" s="3">
-        <v>277000</v>
+        <v>282200</v>
       </c>
       <c r="G76" s="3">
-        <v>279100</v>
+        <v>284300</v>
       </c>
       <c r="H76" s="3">
-        <v>276300</v>
+        <v>281500</v>
       </c>
       <c r="I76" s="3">
-        <v>278800</v>
+        <v>284000</v>
       </c>
       <c r="J76" s="3">
-        <v>285600</v>
+        <v>290900</v>
       </c>
       <c r="K76" s="3">
         <v>288500</v>
@@ -4543,25 +4543,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E81" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F81" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G81" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H81" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I81" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J81" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K81" s="3">
         <v>10400</v>
@@ -4637,13 +4637,13 @@
         <v>800</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -4979,25 +4979,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F89" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G89" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="H89" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I89" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="J89" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="K89" s="3">
         <v>23900</v>
@@ -5238,22 +5238,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E94" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="F94" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="G94" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="I94" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="J94" s="3">
         <v>600</v>
@@ -5320,25 +5320,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="E96" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F96" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="G96" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="H96" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I96" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="J96" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="K96" s="3">
         <v>-17900</v>
@@ -5556,25 +5556,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="E100" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="F100" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="G100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H100" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="I100" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="J100" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="K100" s="3">
         <v>-22000</v>
@@ -5633,7 +5633,7 @@
         <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K101" s="3">
         <v>300</v>
@@ -5674,22 +5674,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E102" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="F102" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G102" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I102" s="3">
-        <v>-12900</v>
+        <v>-13200</v>
       </c>
       <c r="J102" s="3">
         <v>-600</v>
